--- a/src/BackendCodes/ShelfRun/CY2023 Loans and Return Collection Data.xlsx
+++ b/src/BackendCodes/ShelfRun/CY2023 Loans and Return Collection Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\65915\Desktop\SDS\NLB update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9DD770-9658-40FC-8026-2A19343D6AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008D5ED3-25D2-4CA4-A16F-B64C4F1C9333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -582,7 +582,7 @@
   <dimension ref="A1:I571"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C469" sqref="C469"/>
+      <selection activeCell="E579" sqref="E579"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2388,12 +2388,12 @@
         <v>821</v>
       </c>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>17</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C63" t="s">
         <v>11</v>
@@ -2794,12 +2794,12 @@
         <v>370</v>
       </c>
     </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>17</v>
       </c>
       <c r="B77" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C77" t="s">
         <v>11</v>
@@ -6419,7 +6419,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>9</v>
       </c>
@@ -7086,12 +7086,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>17</v>
       </c>
       <c r="B225" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C225" t="s">
         <v>11</v>
@@ -8507,7 +8507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>9</v>
       </c>
@@ -9290,7 +9290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>9</v>
       </c>
@@ -9522,7 +9522,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>9</v>
       </c>
@@ -10218,7 +10218,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>17</v>
       </c>
@@ -10363,7 +10363,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>9</v>
       </c>
@@ -10392,7 +10392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>9</v>
       </c>
@@ -10885,7 +10885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>17</v>
       </c>
@@ -11581,7 +11581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>9</v>
       </c>
@@ -12335,7 +12335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>17</v>
       </c>
@@ -14133,7 +14133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>17</v>
       </c>
@@ -14162,7 +14162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>17</v>
       </c>
@@ -14336,7 +14336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>34</v>
       </c>
@@ -14481,7 +14481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>59</v>
       </c>
@@ -14800,7 +14800,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>9</v>
       </c>
@@ -14829,7 +14829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>9</v>
       </c>
@@ -15699,7 +15699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>17</v>
       </c>
@@ -15728,7 +15728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>17</v>
       </c>
@@ -17151,9 +17151,14 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:I571" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Chinese"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="1">
       <filters>
-        <filter val="U"/>
+        <filter val="JS"/>
       </filters>
     </filterColumn>
   </autoFilter>
